--- a/Test input data/03 Trainee availability/Sam Billmore.xlsx
+++ b/Test input data/03 Trainee availability/Sam Billmore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a98141\Documents\Python Scripts\Rostering\Test input data\03 Trainee availability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d51c4b7793a5e0d/Documents/WLLR/Rostering program/Code development/Python code/Test input data/03 Trainee availability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{588BF951-CE27-4F36-BA1E-9081AFA7E9AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26E5AB87-F85F-45A8-B75E-6EFFB7574D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Availability" sheetId="1" r:id="rId1"/>
@@ -20,42 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Available</t>
-  </si>
-  <si>
-    <t>10/02/2018</t>
-  </si>
-  <si>
-    <t>11/02/2018</t>
-  </si>
-  <si>
-    <t>14/02/2018</t>
-  </si>
-  <si>
-    <t>15/02/2018</t>
-  </si>
-  <si>
-    <t>17/02/2018</t>
-  </si>
-  <si>
-    <t>18/02/2018</t>
-  </si>
-  <si>
-    <t>21/02/2018</t>
-  </si>
-  <si>
-    <t>22/02/2018</t>
-  </si>
-  <si>
-    <t>24/02/2018</t>
-  </si>
-  <si>
-    <t>25/02/2018</t>
   </si>
   <si>
     <t>Y</t>
@@ -68,6 +38,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,11 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +445,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,88 +458,88 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2">
+        <v>43141</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3" s="2">
+        <v>43142</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="A4" s="2">
+        <v>43145</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="A5" s="2">
+        <v>43146</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
+      <c r="A6" s="2">
+        <v>43148</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
+      <c r="A7" s="2">
+        <v>43149</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
+      <c r="A8" s="2">
+        <v>43152</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
+      <c r="A9" s="2">
+        <v>43153</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
+      <c r="A10" s="2">
+        <v>43155</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
+      <c r="A11" s="2">
+        <v>43156</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{CA00E383-39A9-4F0F-AC7C-29E85CDD7754}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
